--- a/static/2024.1.4.xlsx
+++ b/static/2024.1.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BlogSpace\obullxl-github\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE52B19-64F5-4689-9236-D931B94DAF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408DCA6E-E8F6-4936-8DF5-885FE8024CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="97">
   <si>
     <t>班级</t>
   </si>
@@ -302,14 +302,6 @@
   </si>
   <si>
     <t>蔡欣怡</t>
-  </si>
-  <si>
-    <t>班费2025.2.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多收？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>二维码</t>
@@ -320,7 +312,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二维码+转账</t>
+    <t>班费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,7 +365,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -409,22 +401,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -449,14 +432,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -774,20 +760,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="17.4140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.58203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.08203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.9140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -798,10 +785,11 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -814,11 +802,11 @@
       <c r="D2" s="5">
         <v>50</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E2" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -831,11 +819,11 @@
       <c r="D3" s="5">
         <v>50</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -848,11 +836,11 @@
       <c r="D4" s="5">
         <v>50</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -865,11 +853,11 @@
       <c r="D5" s="5">
         <v>50</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -879,8 +867,14 @@
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D6" s="5">
+        <v>50</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -893,11 +887,11 @@
       <c r="D7" s="5">
         <v>50</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -910,11 +904,11 @@
       <c r="D8" s="5">
         <v>50</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -927,11 +921,11 @@
       <c r="D9" s="5">
         <v>50</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E9" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -944,12 +938,11 @@
       <c r="D10" s="5">
         <v>50</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E10" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -962,11 +955,11 @@
       <c r="D11" s="5">
         <v>50</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E11" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -979,11 +972,11 @@
       <c r="D12" s="5">
         <v>50</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -996,11 +989,11 @@
       <c r="D13" s="5">
         <v>50</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E13" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1013,11 +1006,11 @@
       <c r="D14" s="5">
         <v>50</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -1027,8 +1020,9 @@
       <c r="C15" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -1038,6 +1032,12 @@
       <c r="C16" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="D16" s="5">
+        <v>50</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -1052,8 +1052,8 @@
       <c r="D17" s="5">
         <v>50</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>97</v>
+      <c r="E17" s="10" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1069,8 +1069,8 @@
       <c r="D18" s="5">
         <v>50</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>96</v>
+      <c r="E18" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1086,8 +1086,8 @@
       <c r="D19" s="5">
         <v>50</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>96</v>
+      <c r="E19" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1103,9 +1103,8 @@
       <c r="D20" s="5">
         <v>50</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="2" t="s">
-        <v>96</v>
+      <c r="E20" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1121,8 +1120,8 @@
       <c r="D21" s="5">
         <v>50</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>96</v>
+      <c r="E21" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1138,9 +1137,10 @@
       <c r="D22" s="5">
         <v>50</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>96</v>
-      </c>
+      <c r="E22" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -1155,8 +1155,8 @@
       <c r="D23" s="5">
         <v>50</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>97</v>
+      <c r="E23" s="10" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1172,11 +1172,8 @@
       <c r="D24" s="5">
         <v>50</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>98</v>
+      <c r="E24" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1192,8 +1189,8 @@
       <c r="D25" s="5">
         <v>50</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>96</v>
+      <c r="E25" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1209,8 +1206,8 @@
       <c r="D26" s="5">
         <v>50</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>96</v>
+      <c r="E26" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1226,8 +1223,8 @@
       <c r="D27" s="5">
         <v>50</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>97</v>
+      <c r="E27" s="10" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1243,8 +1240,8 @@
       <c r="D28" s="5">
         <v>50</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>96</v>
+      <c r="E28" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1260,8 +1257,8 @@
       <c r="D29" s="5">
         <v>50</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>97</v>
+      <c r="E29" s="10" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1277,8 +1274,8 @@
       <c r="D30" s="5">
         <v>50</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>96</v>
+      <c r="E30" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1294,8 +1291,8 @@
       <c r="D31" s="5">
         <v>50</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>96</v>
+      <c r="E31" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1308,6 +1305,12 @@
       <c r="C32" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="D32" s="5">
+        <v>50</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
@@ -1322,8 +1325,8 @@
       <c r="D33" s="5">
         <v>50</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>96</v>
+      <c r="E33" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1336,6 +1339,12 @@
       <c r="C34" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="D34" s="5">
+        <v>50</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -1350,8 +1359,8 @@
       <c r="D35" s="5">
         <v>50</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>96</v>
+      <c r="E35" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1367,8 +1376,8 @@
       <c r="D36" s="5">
         <v>50</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>96</v>
+      <c r="E36" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1384,8 +1393,8 @@
       <c r="D37" s="5">
         <v>50</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>96</v>
+      <c r="E37" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -1401,6 +1410,9 @@
       <c r="D38" s="5">
         <v>50</v>
       </c>
+      <c r="E38" s="10" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
@@ -1415,8 +1427,8 @@
       <c r="D39" s="5">
         <v>50</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>96</v>
+      <c r="E39" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -1429,6 +1441,12 @@
       <c r="C40" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="D40" s="5">
+        <v>50</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
@@ -1443,8 +1461,8 @@
       <c r="D41" s="5">
         <v>50</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>96</v>
+      <c r="E41" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -1460,10 +1478,10 @@
       <c r="D42" s="5">
         <v>50</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G42" s="10"/>
+      <c r="E42" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
@@ -1478,9 +1496,8 @@
       <c r="D43" s="5">
         <v>50</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="2" t="s">
-        <v>96</v>
+      <c r="E43" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -1496,8 +1513,8 @@
       <c r="D44" s="5">
         <v>50</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>96</v>
+      <c r="E44" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -1513,8 +1530,8 @@
       <c r="D45" s="5">
         <v>50</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>96</v>
+      <c r="E45" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -1530,8 +1547,8 @@
       <c r="D46" s="5">
         <v>50</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>97</v>
+      <c r="E46" s="10" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
